--- a/2016년 수강료 계산 6월/논술1수강료.xlsx
+++ b/2016년 수강료 계산 6월/논술1수강료.xlsx
@@ -279,31 +279,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
